--- a/Datos/Database by set/Set with text box/Xlsx sets/San Diego Comic-Con 2018 (PS18).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/San Diego Comic-Con 2018 (PS18).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,252 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chandra, Torch of Defiance</t>
+          <t>('Chandra, Torch of Defiance', ['{2}{R}{R}', 'Legendary Planeswalker — Chandra', '+1: Exile the top card of your library. You may cast that card. If you don’t, Chandra, Torch of Defiance deals 2 damage to each opponent.', '+1: Add {R}{R}.', '−3: Chandra, Torch of Defiance deals 4 damage to target creature.', '−7: You get an emblem with “Whenever you cast a spell, this emblem deals 5 damage to any target.”', 'Loyalty: 4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{R}{R}</t>
+          <t>('Gideon of the Trials', ['{1}{W}{W}', 'Legendary Planeswalker — Gideon', '+1: Until your next turn, prevent all damage target permanent would deal.', '0: Until end of turn, Gideon of the Trials becomes a 4/4 Human Soldier creature with indestructible that’s still a planeswalker. Prevent all damage that would be dealt to him this turn.', '0: You get an emblem with “As long as you control a Gideon planeswalker, you can’t lose the game and your opponents can’t win the game.”', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Legendary Planeswalker — Chandra</t>
+          <t>('Jace, Cunning Castaway', ['{1}{U}{U}', 'Legendary Planeswalker — Jace', '+1: Whenever one or more creatures you control deal combat damage to a player this turn, draw a card, then discard a card.', '−2: Create a 2/2 blue Illusion creature token with “When this creature becomes the target of a spell, sacrifice it.”', '−5: Create two tokens that are copies of Jace, Cunning Castaway, except they’re not legendary.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>+1: Exile the top card of your library. You may cast that card. If you don’t, Chandra, Torch of Defiance deals 2 damage to each opponent.</t>
+          <t>('Liliana, Untouched by Death', ['{2}{B}{B}', 'Legendary Planeswalker — Liliana', '+1: Mill three cards. If at least one Zombie card is milled this way, each opponent loses 2 life and you gain 2 life.', '−2: Target creature gets -X/-X until end of turn, where X is the number of Zombies you control.', '−3: You may cast Zombie spells from your graveyard this turn.', 'Loyalty: 4'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>+1: Add {R}{R}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>−3: Chandra, Torch of Defiance deals 4 damage to target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>−7: You get an emblem with “Whenever you cast a spell, this emblem deals 5 damage to any target.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Loyalty: 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Gideon of the Trials</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{1}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Gideon</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>+1: Until your next turn, prevent all damage target permanent would deal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>0: Until end of turn, Gideon of the Trials becomes a 4/4 Human Soldier creature with indestructible that’s still a planeswalker. Prevent all damage that would be dealt to him this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>0: You get an emblem with “As long as you control a Gideon planeswalker, you can’t lose the game and your opponents can’t win the game.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Loyalty: 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Jace, Cunning Castaway</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{1}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Jace</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>+1: Whenever one or more creatures you control deal combat damage to a player this turn, draw a card, then discard a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>−2: Create a 2/2 blue Illusion creature token with “When this creature becomes the target of a spell, sacrifice it.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>−5: Create two tokens that are copies of Jace, Cunning Castaway, except they’re not legendary.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Loyalty: 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Liliana, Untouched by Death</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{2}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Liliana</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>+1: Mill three cards. If at least one Zombie card is milled this way, each opponent loses 2 life and you gain 2 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>−2: Target creature gets -X/-X until end of turn, where X is the number of Zombies you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>−3: You may cast Zombie spells from your graveyard this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Loyalty: 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Nissa, Vital Force</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{3}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Nissa</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>+1: Untap target land you control. Until your next turn, it becomes a 5/5 Elemental creature with haste. It’s still a land.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>−3: Return target permanent card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>−6: You get an emblem with “Whenever a land enters the battlefield under your control, you may draw a card.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Loyalty: 5</t>
+          <t>('Nissa, Vital Force', ['{3}{G}{G}', 'Legendary Planeswalker — Nissa', '+1: Untap target land you control. Until your next turn, it becomes a 5/5 Elemental creature with haste. It’s still a land.', '−3: Return target permanent card from your graveyard to your hand.', '−6: You get an emblem with “Whenever a land enters the battlefield under your control, you may draw a card.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
